--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -117,71 +117,71 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44962.0</v>
+        <v>45031.0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>136.0</v>
+        <v>125.0</v>
       </c>
       <c r="D2" t="n">
-        <v>280000.0</v>
+        <v>275000.0</v>
       </c>
       <c r="E2" t="n">
-        <v>200000.0</v>
+        <v>173000.0</v>
       </c>
       <c r="F2" t="n">
-        <v>422500.0</v>
+        <v>410000.0</v>
       </c>
       <c r="G2" t="n">
-        <v>395.0</v>
+        <v>3089.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>44962.0</v>
+        <v>45031.0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>124.0</v>
+        <v>119.0</v>
       </c>
       <c r="D3" t="n">
-        <v>322500.0</v>
+        <v>360000.0</v>
       </c>
       <c r="E3" t="n">
-        <v>215000.0</v>
+        <v>220000.0</v>
       </c>
       <c r="F3" t="n">
-        <v>685000.0</v>
+        <v>692500.0</v>
       </c>
       <c r="G3" t="n">
-        <v>3429.0</v>
+        <v>3556.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>44962.0</v>
+        <v>45031.0</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>2152.0</v>
+        <v>2077.0</v>
       </c>
       <c r="D4" t="n">
-        <v>228000.0</v>
+        <v>233517.0</v>
       </c>
       <c r="E4" t="n">
-        <v>145000.0</v>
+        <v>147000.0</v>
       </c>
       <c r="F4" t="n">
         <v>430000.0</v>
       </c>
       <c r="G4" t="n">
-        <v>2462.0</v>
+        <v>2483.0</v>
       </c>
     </row>
   </sheetData>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -34,7 +34,7 @@
     <t>Price per M2</t>
   </si>
   <si>
-    <t>2023-08-28</t>
+    <t>2023-10-22</t>
   </si>
 </sst>
 </file>
@@ -118,19 +118,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>136.0</v>
+        <v>155.0</v>
       </c>
       <c r="C2" t="n">
-        <v>262000.0</v>
+        <v>255000.0</v>
       </c>
       <c r="D2" t="n">
-        <v>165000.0</v>
+        <v>170000.0</v>
       </c>
       <c r="E2" t="n">
         <v>400000.0</v>
       </c>
       <c r="F2" t="n">
-        <v>2965.0</v>
+        <v>2983.0</v>
       </c>
     </row>
   </sheetData>
@@ -179,19 +179,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>103.0</v>
+        <v>114.0</v>
       </c>
       <c r="C2" t="n">
-        <v>450000.0</v>
+        <v>467500.0</v>
       </c>
       <c r="D2" t="n">
-        <v>294500.0</v>
+        <v>299000.0</v>
       </c>
       <c r="E2" t="n">
         <v>667090.0</v>
       </c>
       <c r="F2" t="n">
-        <v>3920.0</v>
+        <v>3846.0</v>
       </c>
     </row>
   </sheetData>
@@ -240,19 +240,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>2001.0</v>
+        <v>1993.0</v>
       </c>
       <c r="C2" t="n">
-        <v>240000.0</v>
+        <v>248000.0</v>
       </c>
       <c r="D2" t="n">
-        <v>150000.0</v>
+        <v>149000.0</v>
       </c>
       <c r="E2" t="n">
-        <v>490000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="F2" t="n">
-        <v>2532.0</v>
+        <v>2575.0</v>
       </c>
     </row>
   </sheetData>
